--- a/backend/uploads/tables/form2.xlsx
+++ b/backend/uploads/tables/form2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\А078\Desktop\Web\nosql2h24-yandex\backend\uploads\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\А078\Desktop\123\nosql2h24-yandex\backend\uploads\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013C6B04-FA5B-4354-94DE-13A0FCA49BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC6B4A-EE17-4755-AE9F-86C654DD3FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="1575" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="-13620" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,39 @@
   </si>
   <si>
     <t>Это собака?</t>
+  </si>
+  <si>
+    <t>1898367659</t>
+  </si>
+  <si>
+    <t>2024-12-01 10:23:25</t>
+  </si>
+  <si>
+    <t>1898367632</t>
+  </si>
+  <si>
+    <t>2024-12-01 10:23:29</t>
+  </si>
+  <si>
+    <t>1898367594</t>
+  </si>
+  <si>
+    <t>2024-12-10 15:00:00</t>
+  </si>
+  <si>
+    <t>2024-12-10 15:00:01</t>
+  </si>
+  <si>
+    <t>1898367660</t>
+  </si>
+  <si>
+    <t>2024-12-15 23:02:02</t>
+  </si>
+  <si>
+    <t>1898367665</t>
+  </si>
+  <si>
+    <t>2024-12-15 23:02:03</t>
   </si>
 </sst>
 </file>
@@ -101,9 +134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -418,15 +452,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" style="2" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -444,45 +484,129 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
